--- a/eta/日均铁水产量_月度数据.xlsx
+++ b/eta/日均铁水产量_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>237.1239</v>
+        <v>236.0275</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>241.4432</v>
+        <v>241.239</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         <v>241.1958</v>
       </c>
       <c r="C4" t="n">
-        <v>241.5905</v>
+        <v>241.4972</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         <v>238.5183</v>
       </c>
       <c r="C5" t="n">
-        <v>238.5242</v>
+        <v>238.5373</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         <v>240.5319</v>
       </c>
       <c r="C6" t="n">
-        <v>240.5607</v>
+        <v>240.5477</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         <v>241.3325</v>
       </c>
       <c r="C7" t="n">
-        <v>241.3397</v>
+        <v>241.3304</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         <v>241.9353</v>
       </c>
       <c r="C8" t="n">
-        <v>241.9323</v>
+        <v>241.9267</v>
       </c>
     </row>
     <row r="9">
@@ -547,7 +547,7 @@
         <v>244.4219</v>
       </c>
       <c r="C9" t="n">
-        <v>244.4068</v>
+        <v>244.4093</v>
       </c>
     </row>
     <row r="10">
@@ -560,7 +560,7 @@
         <v>241.0684</v>
       </c>
       <c r="C10" t="n">
-        <v>241.0366</v>
+        <v>241.0365</v>
       </c>
     </row>
     <row r="11">
@@ -573,7 +573,7 @@
         <v>232.9567</v>
       </c>
       <c r="C11" t="n">
-        <v>232.9335</v>
+        <v>232.9367</v>
       </c>
     </row>
     <row r="12">
@@ -586,7 +586,7 @@
         <v>227.8998</v>
       </c>
       <c r="C12" t="n">
-        <v>227.9097</v>
+        <v>227.916</v>
       </c>
     </row>
     <row r="13">
@@ -599,7 +599,7 @@
         <v>225.2754</v>
       </c>
       <c r="C13" t="n">
-        <v>225.2887</v>
+        <v>225.2861</v>
       </c>
     </row>
     <row r="14">
@@ -625,7 +625,7 @@
         <v>235.0962</v>
       </c>
       <c r="C15" t="n">
-        <v>235.107</v>
+        <v>235.1098</v>
       </c>
     </row>
     <row r="16">
@@ -638,7 +638,7 @@
         <v>232.7196</v>
       </c>
       <c r="C16" t="n">
-        <v>232.6998</v>
+        <v>232.7035</v>
       </c>
     </row>
     <row r="17">
@@ -651,7 +651,7 @@
         <v>223.4941</v>
       </c>
       <c r="C17" t="n">
-        <v>223.5023</v>
+        <v>223.5017</v>
       </c>
     </row>
     <row r="18">
@@ -664,7 +664,7 @@
         <v>228.8363</v>
       </c>
       <c r="C18" t="n">
-        <v>228.8661</v>
+        <v>228.8612</v>
       </c>
     </row>
     <row r="19">
@@ -677,7 +677,7 @@
         <v>239.0979</v>
       </c>
       <c r="C19" t="n">
-        <v>239.0934</v>
+        <v>239.0916</v>
       </c>
     </row>
     <row r="20">
@@ -690,7 +690,7 @@
         <v>238.249</v>
       </c>
       <c r="C20" t="n">
-        <v>238.2435</v>
+        <v>238.2462</v>
       </c>
     </row>
     <row r="21">
@@ -703,7 +703,7 @@
         <v>234.8546</v>
       </c>
       <c r="C21" t="n">
-        <v>234.8609</v>
+        <v>234.8534</v>
       </c>
     </row>
     <row r="22">
@@ -716,7 +716,7 @@
         <v>225.5752</v>
       </c>
       <c r="C22" t="n">
-        <v>225.5632</v>
+        <v>225.567</v>
       </c>
     </row>
     <row r="23">
@@ -729,7 +729,7 @@
         <v>221.6576</v>
       </c>
       <c r="C23" t="n">
-        <v>221.695</v>
+        <v>221.6883</v>
       </c>
     </row>
     <row r="24">
@@ -742,7 +742,7 @@
         <v>223.485</v>
       </c>
       <c r="C24" t="n">
-        <v>223.4547</v>
+        <v>223.4627</v>
       </c>
     </row>
   </sheetData>
